--- a/src/main/resources/template/temp/test.xlsx
+++ b/src/main/resources/template/temp/test.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="设备" sheetId="1" r:id="rId1"/>
+    <sheet name="激活码" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t>设备编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +229,46 @@
   </si>
   <si>
     <t>CVM-SPG40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ggg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hhh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iii</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,7 +366,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -359,6 +400,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -695,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
@@ -1059,4 +1103,71 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="23.375" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>